--- a/data/quiz1128.xlsx
+++ b/data/quiz1128.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="3140" windowWidth="34140" windowHeight="20920" tabRatio="500"/>
+    <workbookView xWindow="-100" yWindow="460" windowWidth="25440" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -1017,6 +1017,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>빨강팀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1265,19 +1269,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Team</t>
+    <t>무명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀짝.Black</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>홀짝.Red</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홀짝.Black</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1717,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C52" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1777,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>314</v>
@@ -1838,19 +1838,19 @@
         <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>325</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>325</v>
@@ -1859,7 +1859,7 @@
         <v>325</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>324</v>
@@ -1936,13 +1936,13 @@
         <v>21</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>325</v>
@@ -1951,22 +1951,22 @@
         <v>325</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
@@ -1996,37 +1996,37 @@
         <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
@@ -2056,37 +2056,37 @@
         <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
@@ -2116,37 +2116,37 @@
         <v>31</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
@@ -2176,37 +2176,37 @@
         <v>35</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
@@ -2236,37 +2236,37 @@
         <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
@@ -2296,37 +2296,37 @@
         <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
@@ -2356,37 +2356,37 @@
         <v>47</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
@@ -2416,37 +2416,37 @@
         <v>50</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
@@ -2476,37 +2476,37 @@
         <v>53</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
@@ -2536,37 +2536,37 @@
         <v>57</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
@@ -2596,37 +2596,37 @@
         <v>60</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
@@ -2694,37 +2694,37 @@
         <v>68</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R18" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="T18" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="T18" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
@@ -2754,37 +2754,37 @@
         <v>71</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
@@ -2814,37 +2814,37 @@
         <v>74</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -2874,37 +2874,37 @@
         <v>77</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
@@ -2934,37 +2934,37 @@
         <v>80</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
@@ -2994,37 +2994,37 @@
         <v>83</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
@@ -3092,37 +3092,37 @@
         <v>91</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
@@ -3152,37 +3152,37 @@
         <v>94</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P26" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="R26" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="Q26" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="R26" s="6" t="s">
+      <c r="S26" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="T26" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="T26" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
@@ -3212,37 +3212,37 @@
         <v>97</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
@@ -3272,37 +3272,37 @@
         <v>100</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
@@ -3332,37 +3332,37 @@
         <v>103</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
@@ -3430,37 +3430,37 @@
         <v>110</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V31" s="13"/>
       <c r="W31" s="13"/>
@@ -3490,37 +3490,37 @@
         <v>113</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N32" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="R32" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="O32" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="S32" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
@@ -3550,37 +3550,37 @@
         <v>115</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
@@ -3610,37 +3610,37 @@
         <v>119</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T34" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
@@ -3670,37 +3670,37 @@
         <v>122</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T35" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
@@ -3768,37 +3768,37 @@
         <v>128</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T37" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
@@ -3828,37 +3828,37 @@
         <v>131</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T38" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
@@ -3891,34 +3891,34 @@
         <v>390</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
@@ -3948,37 +3948,37 @@
         <v>137</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S40" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T40" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="12"/>
@@ -4008,37 +4008,37 @@
         <v>140</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T41" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
@@ -4068,37 +4068,37 @@
         <v>143</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V42" s="12"/>
       <c r="W42" s="12"/>
@@ -4128,37 +4128,37 @@
         <v>146</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V43" s="12"/>
       <c r="W43" s="12"/>
@@ -4188,37 +4188,37 @@
         <v>149</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S44" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V44" s="12"/>
       <c r="W44" s="12"/>
@@ -4248,37 +4248,37 @@
         <v>152</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S45" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V45" s="13"/>
       <c r="W45" s="13"/>
@@ -4308,37 +4308,37 @@
         <v>155</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S46" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V46" s="12"/>
       <c r="W46" s="12"/>
@@ -4368,37 +4368,37 @@
         <v>158</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
@@ -4428,37 +4428,37 @@
         <v>161</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S48" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T48" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V48" s="13"/>
       <c r="W48" s="13"/>
@@ -4488,37 +4488,37 @@
         <v>164</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S49" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T49" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V49" s="12"/>
       <c r="W49" s="12"/>
@@ -4548,37 +4548,37 @@
         <v>167</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S50" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T50" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V50" s="12"/>
       <c r="W50" s="12"/>
@@ -4608,37 +4608,37 @@
         <v>170</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S51" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V51" s="12"/>
       <c r="W51" s="12"/>
@@ -4668,37 +4668,37 @@
         <v>173</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S52" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T52" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V52" s="12"/>
       <c r="W52" s="12"/>
@@ -4728,37 +4728,37 @@
         <v>176</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S53" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T53" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V53" s="12"/>
       <c r="W53" s="12"/>
@@ -4826,37 +4826,37 @@
         <v>183</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R55" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S55" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
@@ -4886,37 +4886,37 @@
         <v>186</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R56" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S56" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T56" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
@@ -4946,37 +4946,37 @@
         <v>189</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R57" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S57" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T57" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
@@ -5006,37 +5006,37 @@
         <v>192</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S58" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T58" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V58" s="13"/>
       <c r="W58" s="13"/>
@@ -5066,37 +5066,37 @@
         <v>195</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S59" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T59" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V59" s="12"/>
       <c r="W59" s="12"/>
@@ -5126,37 +5126,37 @@
         <v>198</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R60" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S60" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T60" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V60" s="12"/>
       <c r="W60" s="12"/>
@@ -5186,37 +5186,37 @@
         <v>202</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R61" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S61" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V61" s="12"/>
       <c r="W61" s="12"/>
@@ -5246,37 +5246,37 @@
         <v>205</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R62" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S62" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T62" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V62" s="12"/>
       <c r="W62" s="12"/>
@@ -5306,37 +5306,37 @@
         <v>208</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S63" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T63" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V63" s="12"/>
       <c r="W63" s="12"/>
@@ -5366,37 +5366,37 @@
         <v>211</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S64" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
@@ -5426,37 +5426,37 @@
         <v>214</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R65" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S65" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T65" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
@@ -5486,37 +5486,37 @@
         <v>217</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R66" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S66" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V66" s="12"/>
       <c r="W66" s="12"/>
@@ -5546,37 +5546,37 @@
         <v>220</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S67" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T67" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V67" s="12"/>
       <c r="W67" s="12"/>
@@ -5606,37 +5606,37 @@
         <v>223</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R68" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S68" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T68" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V68" s="12"/>
       <c r="W68" s="12"/>
@@ -5666,37 +5666,37 @@
         <v>310</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R69" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S69" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T69" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V69" s="12"/>
       <c r="W69" s="12"/>
@@ -5726,37 +5726,37 @@
         <v>228</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S70" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T70" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V70" s="13"/>
       <c r="W70" s="13"/>
@@ -5786,37 +5786,37 @@
         <v>231</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R71" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S71" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T71" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V71" s="12"/>
       <c r="W71" s="12"/>
@@ -5846,37 +5846,37 @@
         <v>234</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R72" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S72" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T72" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V72" s="12"/>
       <c r="W72" s="12"/>
@@ -5906,37 +5906,37 @@
         <v>237</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R73" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S73" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T73" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V73" s="12"/>
       <c r="W73" s="12"/>
@@ -5966,37 +5966,37 @@
         <v>240</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R74" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S74" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T74" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V74" s="12"/>
       <c r="W74" s="12"/>
@@ -6026,37 +6026,37 @@
         <v>243</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R75" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S75" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T75" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V75" s="12"/>
       <c r="W75" s="12"/>
@@ -6086,37 +6086,37 @@
         <v>246</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R76" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S76" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T76" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V76" s="12"/>
       <c r="W76" s="12"/>
@@ -6146,37 +6146,37 @@
         <v>249</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R77" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S77" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T77" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V77" s="12"/>
       <c r="W77" s="12"/>
@@ -6244,37 +6244,37 @@
         <v>256</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R79" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S79" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T79" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V79" s="12"/>
       <c r="W79" s="12"/>
@@ -6304,37 +6304,37 @@
         <v>311</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R80" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S80" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T80" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V80" s="12"/>
       <c r="W80" s="12"/>
@@ -6364,37 +6364,37 @@
         <v>261</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R81" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S81" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T81" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
@@ -6424,37 +6424,37 @@
         <v>264</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R82" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S82" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T82" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
@@ -6484,37 +6484,37 @@
         <v>267</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P83" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q83" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R83" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S83" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T83" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V83" s="13"/>
       <c r="W83" s="13"/>
@@ -6544,37 +6544,37 @@
         <v>270</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R84" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S84" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T84" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V84" s="12"/>
       <c r="W84" s="12"/>
@@ -6604,37 +6604,37 @@
         <v>273</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S85" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T85" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V85" s="12"/>
       <c r="W85" s="12"/>
@@ -6664,37 +6664,37 @@
         <v>277</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R86" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S86" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T86" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V86" s="12"/>
       <c r="W86" s="12"/>
@@ -6724,37 +6724,37 @@
         <v>280</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q87" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S87" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="U87" s="11"/>
       <c r="V87" s="12"/>
@@ -6785,37 +6785,37 @@
         <v>309</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R88" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S88" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T88" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V88" s="12"/>
       <c r="W88" s="12"/>
@@ -6845,37 +6845,37 @@
         <v>285</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R89" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S89" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V89" s="12"/>
       <c r="W89" s="12"/>
@@ -6905,37 +6905,37 @@
         <v>288</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P90" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q90" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R90" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S90" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T90" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V90" s="13"/>
       <c r="W90" s="13"/>
@@ -6965,37 +6965,37 @@
         <v>291</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R91" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S91" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V91" s="12"/>
       <c r="W91" s="12"/>
@@ -7028,34 +7028,34 @@
         <v>390</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R92" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S92" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T92" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V92" s="12"/>
       <c r="W92" s="12"/>
@@ -7085,37 +7085,37 @@
         <v>296</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S93" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T93" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V93" s="12"/>
       <c r="W93" s="12"/>
@@ -7145,37 +7145,37 @@
         <v>299</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K94" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O94" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q94" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="R94" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="S94" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="T94" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="L94" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="M94" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="N94" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="O94" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="P94" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q94" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="R94" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="S94" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="T94" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="V94" s="12"/>
       <c r="W94" s="12"/>
@@ -7205,37 +7205,37 @@
         <v>302</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P95" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q95" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R95" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S95" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T95" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V95" s="13"/>
       <c r="W95" s="13"/>
@@ -7265,37 +7265,37 @@
         <v>305</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S96" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T96" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V96" s="12"/>
       <c r="W96" s="12"/>
@@ -7325,37 +7325,37 @@
         <v>308</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R97" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S97" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T97" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V97" s="12"/>
       <c r="W97" s="12"/>

--- a/data/quiz1128.xlsx
+++ b/data/quiz1128.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="460" windowWidth="25440" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -1017,10 +1017,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>빨강팀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1278,6 +1274,10 @@
   </si>
   <si>
     <t>홀짝.Red</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1717,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1777,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>326</v>
+        <v>391</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>314</v>
@@ -1838,19 +1838,19 @@
         <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>355</v>
-      </c>
       <c r="L3" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>325</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>325</v>
@@ -1859,7 +1859,7 @@
         <v>325</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>324</v>
@@ -1936,13 +1936,13 @@
         <v>21</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>338</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>325</v>
@@ -1951,22 +1951,22 @@
         <v>325</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
@@ -1996,37 +1996,37 @@
         <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
@@ -2056,37 +2056,37 @@
         <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
@@ -2116,37 +2116,37 @@
         <v>31</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
@@ -2176,37 +2176,37 @@
         <v>35</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
@@ -2236,37 +2236,37 @@
         <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
@@ -2296,37 +2296,37 @@
         <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
@@ -2356,37 +2356,37 @@
         <v>47</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
@@ -2416,37 +2416,37 @@
         <v>50</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
@@ -2476,37 +2476,37 @@
         <v>53</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
@@ -2536,37 +2536,37 @@
         <v>57</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
@@ -2596,37 +2596,37 @@
         <v>60</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
@@ -2694,37 +2694,37 @@
         <v>68</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N18" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="T18" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="T18" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
@@ -2754,37 +2754,37 @@
         <v>71</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
@@ -2814,37 +2814,37 @@
         <v>74</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -2874,37 +2874,37 @@
         <v>77</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
@@ -2934,37 +2934,37 @@
         <v>80</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
@@ -2994,37 +2994,37 @@
         <v>83</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
@@ -3092,37 +3092,37 @@
         <v>91</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
@@ -3152,37 +3152,37 @@
         <v>94</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="N26" s="6" t="s">
+      <c r="P26" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q26" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="O26" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q26" s="6" t="s">
+      <c r="R26" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="R26" s="6" t="s">
-        <v>332</v>
-      </c>
       <c r="S26" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
@@ -3212,37 +3212,37 @@
         <v>97</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
@@ -3272,37 +3272,37 @@
         <v>100</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
@@ -3332,37 +3332,37 @@
         <v>103</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
@@ -3430,37 +3430,37 @@
         <v>110</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V31" s="13"/>
       <c r="W31" s="13"/>
@@ -3490,37 +3490,37 @@
         <v>113</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L32" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M32" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="N32" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="R32" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="N32" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>332</v>
-      </c>
       <c r="S32" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
@@ -3550,37 +3550,37 @@
         <v>115</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
@@ -3610,37 +3610,37 @@
         <v>119</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T34" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
@@ -3670,37 +3670,37 @@
         <v>122</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T35" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
@@ -3768,37 +3768,37 @@
         <v>128</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T37" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
@@ -3828,37 +3828,37 @@
         <v>131</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T38" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
@@ -3888,37 +3888,37 @@
         <v>134</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
@@ -3948,37 +3948,37 @@
         <v>137</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S40" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T40" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="12"/>
@@ -4008,37 +4008,37 @@
         <v>140</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T41" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
@@ -4068,37 +4068,37 @@
         <v>143</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V42" s="12"/>
       <c r="W42" s="12"/>
@@ -4128,37 +4128,37 @@
         <v>146</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V43" s="12"/>
       <c r="W43" s="12"/>
@@ -4188,37 +4188,37 @@
         <v>149</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S44" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V44" s="12"/>
       <c r="W44" s="12"/>
@@ -4248,37 +4248,37 @@
         <v>152</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S45" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V45" s="13"/>
       <c r="W45" s="13"/>
@@ -4308,37 +4308,37 @@
         <v>155</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S46" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V46" s="12"/>
       <c r="W46" s="12"/>
@@ -4368,37 +4368,37 @@
         <v>158</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
@@ -4428,37 +4428,37 @@
         <v>161</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S48" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T48" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V48" s="13"/>
       <c r="W48" s="13"/>
@@ -4488,37 +4488,37 @@
         <v>164</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S49" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T49" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V49" s="12"/>
       <c r="W49" s="12"/>
@@ -4548,37 +4548,37 @@
         <v>167</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S50" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T50" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V50" s="12"/>
       <c r="W50" s="12"/>
@@ -4608,37 +4608,37 @@
         <v>170</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S51" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V51" s="12"/>
       <c r="W51" s="12"/>
@@ -4668,37 +4668,37 @@
         <v>173</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S52" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T52" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V52" s="12"/>
       <c r="W52" s="12"/>
@@ -4728,37 +4728,37 @@
         <v>176</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S53" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T53" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V53" s="12"/>
       <c r="W53" s="12"/>
@@ -4826,37 +4826,37 @@
         <v>183</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R55" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S55" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
@@ -4886,37 +4886,37 @@
         <v>186</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R56" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S56" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T56" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
@@ -4946,37 +4946,37 @@
         <v>189</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R57" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S57" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T57" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
@@ -5006,37 +5006,37 @@
         <v>192</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K58" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="N58" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="L58" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="N58" s="8" t="s">
+      <c r="O58" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q58" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="O58" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="P58" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q58" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="R58" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S58" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T58" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V58" s="13"/>
       <c r="W58" s="13"/>
@@ -5066,37 +5066,37 @@
         <v>195</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S59" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T59" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V59" s="12"/>
       <c r="W59" s="12"/>
@@ -5126,37 +5126,37 @@
         <v>198</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R60" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S60" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T60" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V60" s="12"/>
       <c r="W60" s="12"/>
@@ -5186,37 +5186,37 @@
         <v>202</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R61" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S61" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V61" s="12"/>
       <c r="W61" s="12"/>
@@ -5246,37 +5246,37 @@
         <v>205</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R62" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S62" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T62" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V62" s="12"/>
       <c r="W62" s="12"/>
@@ -5306,37 +5306,37 @@
         <v>208</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S63" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T63" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V63" s="12"/>
       <c r="W63" s="12"/>
@@ -5366,37 +5366,37 @@
         <v>211</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S64" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
@@ -5426,37 +5426,37 @@
         <v>214</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R65" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S65" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T65" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
@@ -5486,37 +5486,37 @@
         <v>217</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R66" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S66" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V66" s="12"/>
       <c r="W66" s="12"/>
@@ -5546,37 +5546,37 @@
         <v>220</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S67" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T67" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V67" s="12"/>
       <c r="W67" s="12"/>
@@ -5606,37 +5606,37 @@
         <v>223</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R68" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S68" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T68" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V68" s="12"/>
       <c r="W68" s="12"/>
@@ -5666,37 +5666,37 @@
         <v>310</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R69" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S69" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T69" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V69" s="12"/>
       <c r="W69" s="12"/>
@@ -5726,37 +5726,37 @@
         <v>228</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S70" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T70" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V70" s="13"/>
       <c r="W70" s="13"/>
@@ -5786,37 +5786,37 @@
         <v>231</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R71" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S71" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T71" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V71" s="12"/>
       <c r="W71" s="12"/>
@@ -5846,37 +5846,37 @@
         <v>234</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R72" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S72" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T72" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V72" s="12"/>
       <c r="W72" s="12"/>
@@ -5906,37 +5906,37 @@
         <v>237</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R73" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S73" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T73" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V73" s="12"/>
       <c r="W73" s="12"/>
@@ -5966,37 +5966,37 @@
         <v>240</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R74" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S74" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T74" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V74" s="12"/>
       <c r="W74" s="12"/>
@@ -6026,37 +6026,37 @@
         <v>243</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R75" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S75" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T75" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V75" s="12"/>
       <c r="W75" s="12"/>
@@ -6086,37 +6086,37 @@
         <v>246</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R76" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S76" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T76" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V76" s="12"/>
       <c r="W76" s="12"/>
@@ -6146,37 +6146,37 @@
         <v>249</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R77" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S77" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T77" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V77" s="12"/>
       <c r="W77" s="12"/>
@@ -6244,37 +6244,37 @@
         <v>256</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R79" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S79" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T79" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V79" s="12"/>
       <c r="W79" s="12"/>
@@ -6304,37 +6304,37 @@
         <v>311</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R80" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S80" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T80" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V80" s="12"/>
       <c r="W80" s="12"/>
@@ -6364,37 +6364,37 @@
         <v>261</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R81" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S81" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T81" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
@@ -6424,37 +6424,37 @@
         <v>264</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R82" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S82" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T82" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
@@ -6484,37 +6484,37 @@
         <v>267</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P83" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q83" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R83" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S83" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T83" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V83" s="13"/>
       <c r="W83" s="13"/>
@@ -6544,37 +6544,37 @@
         <v>270</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R84" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S84" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T84" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V84" s="12"/>
       <c r="W84" s="12"/>
@@ -6604,37 +6604,37 @@
         <v>273</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S85" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T85" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V85" s="12"/>
       <c r="W85" s="12"/>
@@ -6664,37 +6664,37 @@
         <v>277</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R86" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S86" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T86" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V86" s="12"/>
       <c r="W86" s="12"/>
@@ -6724,37 +6724,37 @@
         <v>280</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q87" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S87" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U87" s="11"/>
       <c r="V87" s="12"/>
@@ -6785,37 +6785,37 @@
         <v>309</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R88" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S88" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T88" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V88" s="12"/>
       <c r="W88" s="12"/>
@@ -6845,37 +6845,37 @@
         <v>285</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R89" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S89" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V89" s="12"/>
       <c r="W89" s="12"/>
@@ -6905,37 +6905,37 @@
         <v>288</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P90" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q90" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R90" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S90" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T90" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V90" s="13"/>
       <c r="W90" s="13"/>
@@ -6965,37 +6965,37 @@
         <v>291</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R91" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S91" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V91" s="12"/>
       <c r="W91" s="12"/>
@@ -7025,37 +7025,37 @@
         <v>294</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R92" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S92" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T92" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V92" s="12"/>
       <c r="W92" s="12"/>
@@ -7085,37 +7085,37 @@
         <v>296</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S93" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T93" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V93" s="12"/>
       <c r="W93" s="12"/>
@@ -7145,37 +7145,37 @@
         <v>299</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q94" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R94" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S94" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T94" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V94" s="12"/>
       <c r="W94" s="12"/>
@@ -7205,37 +7205,37 @@
         <v>302</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P95" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q95" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R95" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S95" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T95" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V95" s="13"/>
       <c r="W95" s="13"/>
@@ -7265,37 +7265,37 @@
         <v>305</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S96" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T96" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V96" s="12"/>
       <c r="W96" s="12"/>
@@ -7325,37 +7325,37 @@
         <v>308</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R97" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S97" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T97" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V97" s="12"/>
       <c r="W97" s="12"/>
